--- a/monster hunter/excel/狩猎统计.xlsx
+++ b/monster hunter/excel/狩猎统计.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13879676-18CA-45E0-B7F4-BE96F0615B67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F75277-D3C2-4345-AA53-B1E26EAD0797}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33675" yWindow="1215" windowWidth="17475" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2019-05-30" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="2019-06-06" sheetId="3" r:id="rId1"/>
+    <sheet name="2019-05-30" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>熔岩龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,17 +126,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,11 +425,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AAC2C5-8214-4372-974E-913DCD3FA783}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>43615</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="1">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="1">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="1">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>43622</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <f>SUM(D2:D22)</f>
+        <v>5</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -434,19 +563,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -501,6 +630,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
       <c r="B6" s="1">
         <v>0.83819444444444446</v>
       </c>
@@ -518,11 +648,11 @@
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <f>SUM(D2:D22)</f>
         <v>5</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -536,7 +666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDA66BD-48B0-4FC7-8922-58DA48A7FFF2}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/monster hunter/excel/狩猎统计.xlsx
+++ b/monster hunter/excel/狩猎统计.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F75277-D3C2-4345-AA53-B1E26EAD0797}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748A7C54-6B15-44A2-A68C-1BCB3B56593B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2019-06-06" sheetId="3" r:id="rId1"/>
-    <sheet name="2019-05-30" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="2019-06-08" sheetId="5" r:id="rId1"/>
+    <sheet name="2019-06-07" sheetId="4" r:id="rId2"/>
+    <sheet name="2019-06-06" sheetId="3" r:id="rId3"/>
+    <sheet name="2019-05-30" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
   <si>
     <t>熔岩龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,25 +128,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,11 +430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AAC2C5-8214-4372-974E-913DCD3FA783}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB9C8A3-A92F-47C8-B7D1-E87DD4F3C538}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,32 +517,84 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>43622</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="1">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>43623</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="1">
+        <v>0.96111111111111114</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="1">
+        <v>0.9902777777777777</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>43624</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="1">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="1">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="7">
         <f>SUM(D2:D22)</f>
-        <v>5</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -546,6 +603,306 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A0741C-DCE6-4DE8-B6AC-C3D452870582}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>43615</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="1">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="1">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="1">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>43622</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="1">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>43623</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="1">
+        <v>0.96111111111111114</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="1">
+        <v>0.9902777777777777</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>43624</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="1">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="1">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <f>SUM(D2:D22)</f>
+        <v>10</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B2:B11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AAC2C5-8214-4372-974E-913DCD3FA783}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>43615</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="1">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="1">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="1">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>43622</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="1">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <f>SUM(D2:D22)</f>
+        <v>6</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -630,7 +987,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>0.83819444444444446</v>
       </c>
@@ -642,17 +999,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="7">
         <f>SUM(D2:D22)</f>
         <v>5</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -666,7 +1023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDA66BD-48B0-4FC7-8922-58DA48A7FFF2}">
   <dimension ref="A1"/>
   <sheetViews>
